--- a/Lojas/Juntando Tudo/Dados_Combinados_Unicos_Feira_SSA.xlsx
+++ b/Lojas/Juntando Tudo/Dados_Combinados_Unicos_Feira_SSA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Github\Web-Scraping-Maps-Rstudio\Lojas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Github\Web-Scraping-Maps-Rstudio\Lojas\Juntando Tudo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD3E13-0B8B-41FC-B581-572E4EB1EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15B628B-FC65-47B0-A182-27A9114C7A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10785" yWindow="4845" windowWidth="24135" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18809,8 +18809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
